--- a/docx/20240504_173023.xlsx
+++ b/docx/20240504_173023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Secret\Seriosly\Projects\FirstProgramMicrosoftProject\docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F641BB-BB08-47A3-8F6B-194B73A0AC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBA3BC9-BEBE-48EF-9286-FA7ADCBCCBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1116,7 @@
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
